--- a/data/trans_bre/P2A_senso_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_senso_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,85</t>
+          <t>-2,19; 2,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,3</t>
+          <t>-0,48; 3,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 2,57</t>
+          <t>-1,01; 2,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-64,15; —</t>
+          <t>-69,21; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-64,2; —</t>
+          <t>-67,2; —</t>
         </is>
       </c>
     </row>
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 0,88</t>
+          <t>-2,65; 0,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 2,11</t>
+          <t>-1,16; 2,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,96</t>
+          <t>-0,77; 0,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 3,46</t>
+          <t>-1,76; 3,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-77,94; 71,47</t>
+          <t>-75,58; 77,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-63,24; 288,36</t>
+          <t>-59,51; 350,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,49; 93,69</t>
+          <t>-27,48; 89,42</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 0,56</t>
+          <t>-1,39; 0,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,08</t>
+          <t>-3,36; 0,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 1,08</t>
+          <t>-1,48; 1,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 0,7</t>
+          <t>-3,05; 0,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 217,4</t>
+          <t>-100,0; 161,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-81,84; 70,17</t>
+          <t>-79,37; 60,73</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 0,3</t>
+          <t>-3,54; 0,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 3,44</t>
+          <t>-0,35; 3,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 3,66</t>
+          <t>-0,57; 3,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 2,08</t>
+          <t>-3,8; 1,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-90,79; 38,9</t>
+          <t>-91,01; 54,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,89; 253,8</t>
+          <t>-17,0; 283,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-72,25; 1240,77</t>
+          <t>-70,92; 1158,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-80,75; 185,99</t>
+          <t>-80,02; 234,72</t>
         </is>
       </c>
     </row>
@@ -1068,32 +1068,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 6,0</t>
+          <t>-1,35; 6,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 3,75</t>
+          <t>-6,29; 3,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 0,0</t>
+          <t>-2,93; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,02; 3,31</t>
+          <t>-0,06; 3,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-42,45; 414,78</t>
+          <t>-40,6; 360,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-64,42; 97,5</t>
+          <t>-68,23; 92,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-30,95; —</t>
+          <t>-45,2; —</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 0,69</t>
+          <t>-1,23; 0,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 2,26</t>
+          <t>-0,77; 2,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 1,18</t>
+          <t>-3,94; 1,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 4,05</t>
+          <t>-1,36; 4,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-89,86; 153,4</t>
+          <t>-88,62; 155,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-38,18; 235,64</t>
+          <t>-34,38; 229,14</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 1,5</t>
+          <t>-1,4; 1,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,33</t>
+          <t>-0,39; 2,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 1,15</t>
+          <t>-1,7; 1,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,39; 47,62</t>
+          <t>1,01; 44,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-60,12; 159,48</t>
+          <t>-58,53; 152,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 444,77</t>
+          <t>-37,96; 465,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-69,26; 151,29</t>
+          <t>-73,1; 178,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>33,94; 1825,56</t>
+          <t>23,93; 1552,4</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 2,11</t>
+          <t>-0,36; 2,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 1,71</t>
+          <t>-0,58; 1,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 0,87</t>
+          <t>-1,14; 0,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 0,94</t>
+          <t>-0,54; 0,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-32,08; 335,61</t>
+          <t>-35,76; 365,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-47,42; 349,5</t>
+          <t>-44,46; 353,02</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-76,92; 253,25</t>
+          <t>-81,35; 206,82</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-61,63; 527,6</t>
+          <t>-63,3; 432,9</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 0,67</t>
+          <t>-0,54; 0,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 1,16</t>
+          <t>-0,2; 1,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,58</t>
+          <t>-0,43; 0,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,48; 13,03</t>
+          <t>0,46; 12,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 55,16</t>
+          <t>-28,89; 50,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 84,48</t>
+          <t>-11,01; 86,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-36,06; 73,43</t>
+          <t>-34,58; 78,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18,1; 568,09</t>
+          <t>18,03; 597,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_senso_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_senso_R-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>120,4%</t>
+          <t>109,63%</t>
         </is>
       </c>
     </row>
@@ -673,27 +673,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-2,86; 3,58</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-0,48; 3,06</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-1,07; 2,3</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,48; 3,06</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,01; 2,45</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,05; 197,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-67,2; —</t>
+          <t>-69,44; —</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>15,79%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,33</t>
+          <t>-1,67; 3,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,48; 89,42</t>
+          <t>-26,29; 85,19</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-41,01%</t>
+          <t>-40,47%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 0,62</t>
+          <t>-3,06; 0,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-79,37; 60,73</t>
+          <t>-78,92; 62,79</t>
         </is>
       </c>
     </row>
@@ -920,12 +920,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,17 +935,17 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-58,02%</t>
+          <t>-47,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>64,19%</t>
+          <t>254,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-18,68%</t>
+          <t>-36,9%</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 0,26</t>
+          <t>-3,4; 0,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 3,33</t>
+          <t>0,38; 4,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 1,99</t>
+          <t>-3,9; 1,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-91,01; 54,93</t>
+          <t>-86,32; 59,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 283,98</t>
+          <t>-18,83; 1341,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-80,02; 234,72</t>
+          <t>-84,05; 184,73</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>240,87%</t>
+          <t>208,28%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 3,22</t>
+          <t>-0,33; 2,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-45,2; —</t>
+          <t>-47,56; —</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>49,01%</t>
+          <t>52,31%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 4,06</t>
+          <t>-1,23; 4,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-34,38; 229,14</t>
+          <t>-32,54; 243,54</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>24,8</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>422,73%</t>
+          <t>711,75%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 44,2</t>
+          <t>1,11; 60,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,93; 1552,4</t>
+          <t>25,74; 2265,05</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1335,12 +1335,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>73,58%</t>
+          <t>87,02%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>40,17%</t>
+          <t>85,6%</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 2,17</t>
+          <t>-0,27; 2,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1383,12 +1383,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 0,96</t>
+          <t>-0,41; 0,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,76; 365,7</t>
+          <t>-32,9; 406,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-63,3; 432,9</t>
+          <t>-69,21; 1002,23</t>
         </is>
       </c>
     </row>
@@ -1420,27 +1420,27 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>0,05</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>6,06</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>145,32%</t>
+          <t>273,33%</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 0,65</t>
+          <t>-0,48; 0,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1483,12 +1483,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,46; 12,82</t>
+          <t>0,48; 22,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-28,89; 50,46</t>
+          <t>-26,27; 57,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18,03; 597,0</t>
+          <t>18,25; 1143,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_senso_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_senso_R-Provincia-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad sensorial</t>
+          <t>Hogares con personas con limitación por discapacidad sensorial</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,0</t>
+          <t>-2,1; 2,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 3,58</t>
+          <t>-3,05; 3,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 3,06</t>
+          <t>-0,5; 3,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 2,3</t>
+          <t>-0,96; 2,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,24 +693,24 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-59,05; 197,2</t>
+          <t>-63,55; 197,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-69,21; —</t>
+          <t>-76,25; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-69,44; —</t>
+          <t>-76,91; —</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 0,92</t>
+          <t>-2,55; 1,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,09</t>
+          <t>-1,4; 2,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,85</t>
+          <t>-0,79; 0,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 3,12</t>
+          <t>-2,0; 3,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-75,58; 77,6</t>
+          <t>-72,75; 94,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,51; 350,97</t>
+          <t>-60,75; 283,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,29; 85,19</t>
+          <t>-30,31; 85,4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,55</t>
+          <t>-1,12; 0,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 0,82</t>
+          <t>-3,33; 0,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,06</t>
+          <t>-1,5; 1,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 0,6</t>
+          <t>-3,16; 0,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 161,85</t>
+          <t>-100,0; 162,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-78,92; 62,79</t>
+          <t>-81,31; 54,46</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 0,61</t>
+          <t>-3,31; 0,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 4,61</t>
+          <t>0,36; 4,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,9</t>
+          <t>-0,62; 3,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 1,25</t>
+          <t>-3,89; 1,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-86,32; 59,29</t>
+          <t>-87,61; 67,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 1341,69</t>
+          <t>-13,79; 1369,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-70,92; 1158,1</t>
+          <t>-64,05; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-84,05; 184,73</t>
+          <t>-83,71; 160,42</t>
         </is>
       </c>
     </row>
@@ -1068,32 +1068,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 6,14</t>
+          <t>-1,42; 6,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 3,58</t>
+          <t>-6,24; 3,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,0</t>
+          <t>-3,12; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 2,9</t>
+          <t>-0,42; 2,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-40,6; 360,44</t>
+          <t>-43,98; 336,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-68,23; 92,42</t>
+          <t>-66,86; 90,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-47,56; —</t>
+          <t>-57,3; —</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 0,69</t>
+          <t>-1,14; 0,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 2,23</t>
+          <t>-0,42; 2,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 1,03</t>
+          <t>-3,8; 1,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 4,1</t>
+          <t>-0,92; 3,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,19 +1198,19 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-88,62; 155,96</t>
+          <t>-89,45; 138,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-32,54; 243,54</t>
+          <t>-28,7; 240,48</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,49</t>
+          <t>-1,28; 1,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 2,28</t>
+          <t>-0,3; 2,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,22</t>
+          <t>-1,56; 1,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 60,97</t>
+          <t>1,31; 56,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-58,53; 152,12</t>
+          <t>-54,99; 210,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-37,96; 465,3</t>
+          <t>-30,27; 403,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-73,1; 178,73</t>
+          <t>-70,55; 160,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>25,74; 2265,05</t>
+          <t>32,39; 2759,59</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 2,31</t>
+          <t>-0,21; 2,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 1,53</t>
+          <t>-0,46; 1,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,84</t>
+          <t>-1,1; 0,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 0,85</t>
+          <t>-0,31; 0,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-32,9; 406,38</t>
+          <t>-22,06; 381,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,46; 353,02</t>
+          <t>-39,16; 370,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-81,35; 206,82</t>
+          <t>-77,52; 196,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-69,21; 1002,23</t>
+          <t>-61,03; 1127,73</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,73</t>
+          <t>-0,57; 0,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 1,15</t>
+          <t>-0,23; 1,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 0,56</t>
+          <t>-0,44; 0,57</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,48; 22,25</t>
+          <t>0,46; 23,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 57,48</t>
+          <t>-28,32; 56,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 86,81</t>
+          <t>-12,01; 80,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-34,58; 78,41</t>
+          <t>-35,34; 73,93</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18,25; 1143,88</t>
+          <t>19,06; 1225,76</t>
         </is>
       </c>
     </row>
